--- a/fuentes/contenidos/grado08/guion07/Solicitudes_graficas_MA_08_07_CO/SolicitudGrafica_MA_08_07_CO_REC30.xlsx
+++ b/fuentes/contenidos/grado08/guion07/Solicitudes_graficas_MA_08_07_CO/SolicitudGrafica_MA_08_07_CO_REC30.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Desktop\MA_08_07_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="196">
   <si>
     <t>Fecha:</t>
   </si>
@@ -596,22 +596,25 @@
     <t>ver ultima columna</t>
   </si>
   <si>
+    <t>Identifica el dominio de la función</t>
+  </si>
+  <si>
     <t>Josue Malagón</t>
   </si>
   <si>
-    <t>Por favor dejar las letras f y x en cursiva, espacios antes y después de l igual y del menos, agregar nombres a los ejes cartesianos (Y y X) en mayúscula y cursiva, recordar que al ser un diaporama se debe dejar un espacio en blanco alrededor para el texto.</t>
-  </si>
-  <si>
-    <t>agregar nombres a los ejes del plano cartesiano, recordar que al ser un diaporama se debe dejar esapcio alrededor en blanco para el texto</t>
-  </si>
-  <si>
-    <t>agregar nombres a los ejes del plano cartesiano, recordar que al ser un diaporama se debe dejar espacio alrededor en blanco para el texto, por favor construir iconos de recurso con esta imagen</t>
-  </si>
-  <si>
-    <t>MA_08_07_CO_REC30</t>
-  </si>
-  <si>
-    <t>Las funciones</t>
+    <t>representación grafica de una función en el plano cartesiano</t>
+  </si>
+  <si>
+    <t>representación grafica de una función cuadratica en el plano cartesiano</t>
+  </si>
+  <si>
+    <t>funcion del valor absoluto</t>
+  </si>
+  <si>
+    <t>función con un punto de intererminación</t>
+  </si>
+  <si>
+    <t>MA_08_07_REC30</t>
   </si>
 </sst>
 </file>
@@ -1777,37 +1780,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>557561</xdr:colOff>
+      <xdr:colOff>390069</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>394939</xdr:rowOff>
+      <xdr:rowOff>118119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>3368598</xdr:colOff>
+      <xdr:colOff>4324350</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3037794</xdr:rowOff>
+      <xdr:rowOff>2114550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="5 Imagen" descr="a.png"/>
+        <xdr:cNvPr id="2052" name="Picture 4"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14450122" y="2532256"/>
-          <a:ext cx="2811037" cy="2642855"/>
+          <a:off x="14239419" y="2251719"/>
+          <a:ext cx="3934281" cy="1996431"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1815,37 +1820,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>185854</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>857250</xdr:rowOff>
+      <xdr:rowOff>232317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>5445670</xdr:colOff>
+      <xdr:colOff>4390793</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>4619625</xdr:rowOff>
+      <xdr:rowOff>2339118</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="6 Imagen" descr="b.png"/>
+        <xdr:cNvPr id="2054" name="Picture 6"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14001750" y="6334125"/>
-          <a:ext cx="5302795" cy="3762375"/>
+          <a:off x="14078415" y="4623110"/>
+          <a:ext cx="4204939" cy="2106801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1853,37 +1860,79 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>219857</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>325246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>5116581</xdr:colOff>
+      <xdr:colOff>5064513</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>3524250</xdr:rowOff>
+      <xdr:rowOff>2880732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="7 Imagen" descr="c.png"/>
+        <xdr:cNvPr id="2056" name="Picture 8"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14058900" y="10772775"/>
-          <a:ext cx="4926081" cy="3419475"/>
+          <a:off x="14112418" y="7596770"/>
+          <a:ext cx="4844656" cy="2555486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>302012</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4868435</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3704669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2058" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14194573" y="11430000"/>
+          <a:ext cx="4566423" cy="3495584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2606,9 +2655,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2621,9 +2670,9 @@
     <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.875" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="74" style="15" customWidth="1"/>
+    <col min="11" max="11" width="68.375" style="15" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="10.875" style="2" hidden="1" customWidth="1"/>
@@ -2691,7 +2740,7 @@
       </c>
       <c r="D3" s="88"/>
       <c r="F3" s="80">
-        <v>42410</v>
+        <v>42400</v>
       </c>
       <c r="G3" s="81"/>
       <c r="H3" s="58"/>
@@ -2718,7 +2767,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D4" s="88"/>
       <c r="E4" s="5"/>
@@ -2750,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="5"/>
@@ -2807,7 +2856,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -2897,7 +2946,7 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="268.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
@@ -2917,7 +2966,7 @@
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_08_07_CO_REC30_IMG01.png</v>
+        <v>MA_08_07_REC30_IMG01.png</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2932,7 +2981,7 @@
         <v/>
       </c>
       <c r="J10" s="63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
@@ -2940,7 +2989,7 @@
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="400.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
@@ -2960,7 +3009,7 @@
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_08_07_CO_REC30_IMG02.png</v>
+        <v>MA_08_07_REC30_IMG02.png</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2975,7 +3024,7 @@
         <v/>
       </c>
       <c r="J11" s="63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
@@ -3003,7 +3052,7 @@
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_08_07_CO_REC30_IMG03.png</v>
+        <v>MA_08_07_REC30_IMG03.png</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3018,7 +3067,7 @@
         <v/>
       </c>
       <c r="J12" s="64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
@@ -3026,25 +3075,31 @@
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B13" s="62"/>
+        <v>IMG04</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>188</v>
+      </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
+        <v>Recurso Diaporama F1</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F13" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>MA_08_07_REC30_IMG04.png</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>950 x 608 px</v>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3054,7 +3109,9 @@
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J13" s="64"/>
+      <c r="J13" s="64" t="s">
+        <v>194</v>
+      </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
